--- a/RUDN/Importance/Varible_muatal_reg_in_South-Eastern Asia.xlsx
+++ b/RUDN/Importance/Varible_muatal_reg_in_South-Eastern Asia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="484">
   <si>
     <t>Survival to age 65, female (% of cohort)</t>
   </si>
@@ -25,12 +25,12 @@
     <t>Survival to age 65, male (% of cohort)</t>
   </si>
   <si>
+    <t>Mortality rate, under-5 (per 1,000)</t>
+  </si>
+  <si>
     <t>Mortality rate, under-5 (per 1,000 live births)</t>
   </si>
   <si>
-    <t>Mortality rate, under-5 (per 1,000)</t>
-  </si>
-  <si>
     <t>Mortality rate, adult, male (per 1,000 male adults)</t>
   </si>
   <si>
@@ -109,15 +109,15 @@
     <t>Population ages 35-39, male (% of male population)</t>
   </si>
   <si>
+    <t>Prevalence of overweight, female (% of female adults)</t>
+  </si>
+  <si>
     <t>Population ages 00-04, male (% of male population)</t>
   </si>
   <si>
     <t>Population ages 00-14, male (% of total)</t>
   </si>
   <si>
-    <t>Prevalence of overweight, female (% of female adults)</t>
-  </si>
-  <si>
     <t>Fertility rate, total (births per woman)</t>
   </si>
   <si>
@@ -148,6 +148,9 @@
     <t>Population ages 65 and above, male</t>
   </si>
   <si>
+    <t>Tuberculosis death rate (per 100,000 people)</t>
+  </si>
+  <si>
     <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
   </si>
   <si>
@@ -157,21 +160,21 @@
     <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
   </si>
   <si>
-    <t>Tuberculosis death rate (per 100,000 people)</t>
-  </si>
-  <si>
     <t>Age dependency ratio, young</t>
   </si>
   <si>
+    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
+  </si>
+  <si>
+    <t>Fixed telephone subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Male population 70-74</t>
+  </si>
+  <si>
     <t>Population ages 15-19, male (% of male population)</t>
   </si>
   <si>
-    <t>Fixed telephone subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>Male population 70-74</t>
-  </si>
-  <si>
     <t>Population ages 15-64, male (% of total)</t>
   </si>
   <si>
@@ -187,9 +190,6 @@
     <t>Population ages 15-64, female (% of total)</t>
   </si>
   <si>
-    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
-  </si>
-  <si>
     <t>Population ages 65 and above, female</t>
   </si>
   <si>
@@ -211,12 +211,12 @@
     <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>Unemployment, female (% of female labor force)</t>
+  </si>
+  <si>
     <t>Population ages 00-04, female (% of female population)</t>
   </si>
   <si>
-    <t>Unemployment, female (% of female labor force)</t>
-  </si>
-  <si>
     <t>Population ages10-14, male (% of male population)</t>
   </si>
   <si>
@@ -235,24 +235,24 @@
     <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>Female population 65-69</t>
+  </si>
+  <si>
     <t>Prevalence of obesity, female (% of female population ages 18+)</t>
   </si>
   <si>
-    <t>Female population 65-69</t>
-  </si>
-  <si>
     <t>Male population 75-79</t>
   </si>
   <si>
     <t>Population ages 05-09, male (% of male population)</t>
   </si>
   <si>
+    <t>Population ages 05-09, female (% of female population)</t>
+  </si>
+  <si>
     <t>Population, male</t>
   </si>
   <si>
-    <t>Population ages 05-09, female (% of female population)</t>
-  </si>
-  <si>
     <t>Population ages 45-49, female (% of female population)</t>
   </si>
   <si>
@@ -274,15 +274,15 @@
     <t>Urban population</t>
   </si>
   <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
     <t>Population ages 15-19, female (% of female population)</t>
   </si>
   <si>
     <t>Female population 50-54</t>
   </si>
   <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
     <t>Female population 60-64</t>
   </si>
   <si>
@@ -295,15 +295,15 @@
     <t>Male population 25-29</t>
   </si>
   <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
     <t>Female population 55-59</t>
   </si>
   <si>
     <t>Male population 50-54</t>
   </si>
   <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
     <t>Female population 30-34</t>
   </si>
   <si>
@@ -322,18 +322,18 @@
     <t>Population ages 70-74, male (% of male population)</t>
   </si>
   <si>
+    <t>Unemployment, total (% of total labor force)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
     <t>Prevalence of anemia among pregnant women (%)</t>
   </si>
   <si>
-    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
     <t>Population ages 15-64, total</t>
   </si>
   <si>
-    <t>Unemployment, total (% of total labor force)</t>
-  </si>
-  <si>
     <t>Female population 45-49</t>
   </si>
   <si>
@@ -349,12 +349,12 @@
     <t>Female population 25-29</t>
   </si>
   <si>
+    <t>Population ages 15-64, female</t>
+  </si>
+  <si>
     <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
   </si>
   <si>
-    <t>Population ages 15-64, female</t>
-  </si>
-  <si>
     <t>Population ages 80 and older, female (% of female population)</t>
   </si>
   <si>
@@ -376,15 +376,15 @@
     <t>Labor force, total</t>
   </si>
   <si>
+    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
+  </si>
+  <si>
     <t>Population ages 80 and older, male (% of male population)</t>
   </si>
   <si>
     <t>Male population 45-49</t>
   </si>
   <si>
-    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
-  </si>
-  <si>
     <t>Population ages 70-74, female (% of female population)</t>
   </si>
   <si>
@@ -406,6 +406,9 @@
     <t>Female population 40-44</t>
   </si>
   <si>
+    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
+  </si>
+  <si>
     <t>Health expenditure, private (% of total health expenditure)</t>
   </si>
   <si>
@@ -415,9 +418,6 @@
     <t>Age population, age 22, male, interpolated</t>
   </si>
   <si>
-    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
-  </si>
-  <si>
     <t>Age population, age 23, male, interpolated</t>
   </si>
   <si>
@@ -436,15 +436,15 @@
     <t>Age population, age 21, male, interpolated</t>
   </si>
   <si>
+    <t>Adults (ages 15+) newly infected with HIV</t>
+  </si>
+  <si>
     <t>Female population 35-39</t>
   </si>
   <si>
     <t>Forest area (sq. km)</t>
   </si>
   <si>
-    <t>Adults (ages 15+) newly infected with HIV</t>
-  </si>
-  <si>
     <t>Internet users (per 100 people)</t>
   </si>
   <si>
@@ -484,15 +484,15 @@
     <t>Population ages 65 and above, male (% of total)</t>
   </si>
   <si>
+    <t>Age population, age 0, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 04, female, interpolated</t>
+  </si>
+  <si>
     <t>Population ages 20-24, male (% of male population)</t>
   </si>
   <si>
-    <t>Age population, age 0, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 04, female, interpolated</t>
-  </si>
-  <si>
     <t>Population ages 60-64, male (% of male population)</t>
   </si>
   <si>
@@ -526,48 +526,48 @@
     <t>Age population, age 06, female, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 23, female, interpolated</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Age population, age 02, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 22, female, interpolated</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Female population 20-24</t>
+  </si>
+  <si>
+    <t>Age population, age 21, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 07, female, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 05-09</t>
+  </si>
+  <si>
+    <t>Age population, age 06, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 03, male, interpolated</t>
+  </si>
+  <si>
     <t>Adults (ages 15+) living with HIV</t>
   </si>
   <si>
-    <t>Age population, age 23, female, interpolated</t>
+    <t>Age population, age 18, male, interpolated</t>
   </si>
   <si>
     <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
   </si>
   <si>
-    <t>Health expenditure, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Age population, age 02, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 22, female, interpolated</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Female population 20-24</t>
-  </si>
-  <si>
-    <t>Age population, age 21, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 07, female, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 05-09</t>
-  </si>
-  <si>
-    <t>Age population, age 06, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 03, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 18, male, interpolated</t>
-  </si>
-  <si>
     <t>Age population, age 04, male, interpolated</t>
   </si>
   <si>
@@ -577,66 +577,66 @@
     <t>Age population, age 11, male, interpolated</t>
   </si>
   <si>
+    <t>Immunization, Pol3 (% of one-year-old children)</t>
+  </si>
+  <si>
     <t>Age population, age 05, male, interpolated</t>
   </si>
   <si>
     <t>Age population, age 09, male, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 07, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 08, female, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 05-09</t>
+  </si>
+  <si>
+    <t>Age population, age 10, male, interpolated</t>
+  </si>
+  <si>
+    <t>Urban population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Male population 15-19</t>
+  </si>
+  <si>
+    <t>Age population, age 08, male, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 10-14</t>
+  </si>
+  <si>
+    <t>Age population, age 12, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above (% of total)</t>
+  </si>
+  <si>
+    <t>Age population, age 09, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 19, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 17, male, interpolated</t>
+  </si>
+  <si>
+    <t>Rural population</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, female (% of total)</t>
+  </si>
+  <si>
+    <t>Age population, age 10, female, interpolated</t>
+  </si>
+  <si>
     <t>Immunization, measles (% of children ages 12-23 months)</t>
   </si>
   <si>
-    <t>Age population, age 07, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 08, female, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 05-09</t>
-  </si>
-  <si>
-    <t>Age population, age 10, male, interpolated</t>
-  </si>
-  <si>
-    <t>Urban population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Male population 15-19</t>
-  </si>
-  <si>
-    <t>Age population, age 08, male, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 10-14</t>
-  </si>
-  <si>
-    <t>Age population, age 12, male, interpolated</t>
-  </si>
-  <si>
-    <t>Immunization, Pol3 (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above (% of total)</t>
-  </si>
-  <si>
-    <t>Age population, age 09, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 19, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 17, male, interpolated</t>
-  </si>
-  <si>
-    <t>Rural population</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, female (% of total)</t>
-  </si>
-  <si>
-    <t>Age population, age 10, female, interpolated</t>
-  </si>
-  <si>
     <t>Population ages 65-69, female (% of female population)</t>
   </si>
   <si>
@@ -664,6 +664,9 @@
     <t>Age population, age 18, female, interpolated</t>
   </si>
   <si>
+    <t>Population ages 50-54, female (% of female population)</t>
+  </si>
+  <si>
     <t>Age population, age 11, female, interpolated</t>
   </si>
   <si>
@@ -673,9 +676,6 @@
     <t>Population ages 0-14, male</t>
   </si>
   <si>
-    <t>Population ages 50-54, female (% of female population)</t>
-  </si>
-  <si>
     <t>Female population 10-14</t>
   </si>
   <si>
@@ -724,15 +724,15 @@
     <t>People using basic sanitation services, rural (% of rural population)</t>
   </si>
   <si>
+    <t>Tuberculosis case detection rate (%, all forms)</t>
+  </si>
+  <si>
     <t>Number of under-five deaths</t>
   </si>
   <si>
     <t>Health expenditure, public (% of GDP)</t>
   </si>
   <si>
-    <t>Tuberculosis case detection rate (%, all forms)</t>
-  </si>
-  <si>
     <t>Improved water source, rural (% of rural population with access)</t>
   </si>
   <si>
@@ -748,18 +748,18 @@
     <t>Time required to start a business, female (days)</t>
   </si>
   <si>
+    <t>Time required to start a business, male (days)</t>
+  </si>
+  <si>
+    <t>Number of people who are undernourished</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
     <t>Children (ages 0-14) newly infected with HIV</t>
   </si>
   <si>
-    <t>Time required to start a business, male (days)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services, urban  (% of urban population)</t>
-  </si>
-  <si>
-    <t>Number of people who are undernourished</t>
-  </si>
-  <si>
     <t>GDP (current US$)</t>
   </si>
   <si>
@@ -799,51 +799,51 @@
     <t>Improved sanitation facilities (% of population with access)</t>
   </si>
   <si>
+    <t>Persistence to last grade of primary, total (% of cohort)</t>
+  </si>
+  <si>
     <t>Children out of school, primary, male</t>
   </si>
   <si>
-    <t>Persistence to last grade of primary, total (% of cohort)</t>
-  </si>
-  <si>
     <t>Population ages 55-59, male (% of male population)</t>
   </si>
   <si>
     <t>AIDS estimated deaths (UNAIDS estimates)</t>
   </si>
   <si>
+    <t>Gross graduation ratio, tertiary, male (%)</t>
+  </si>
+  <si>
+    <t>Prevalence of undernourishment (% of population)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% gross)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, tertiary, female (%)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (current US$)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
+  </si>
+  <si>
     <t>Tuberculosis treatment success rate (% of new cases)</t>
   </si>
   <si>
-    <t>Gross graduation ratio, tertiary, male (%)</t>
-  </si>
-  <si>
-    <t>Prevalence of undernourishment (% of population)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, female (% gross)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, tertiary, female (%)</t>
-  </si>
-  <si>
-    <t>Health expenditure, total (current US$)</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
+    <t>Vitamin A supplementation coverage rate (% of children ages 6-59 months)</t>
   </si>
   <si>
     <t>Children out of school, primary, female</t>
   </si>
   <si>
-    <t>Vitamin A supplementation coverage rate (% of children ages 6-59 months)</t>
-  </si>
-  <si>
     <t>Malaria cases reported</t>
   </si>
   <si>
@@ -901,12 +901,12 @@
     <t>Employment in services, male (% of male employment)</t>
   </si>
   <si>
+    <t>Improved water source, urban (% of urban population with access)</t>
+  </si>
+  <si>
     <t>School enrollment, tertiary (% gross)</t>
   </si>
   <si>
-    <t>Improved water source, urban (% of urban population with access)</t>
-  </si>
-  <si>
     <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
   </si>
   <si>
@@ -1033,15 +1033,15 @@
     <t>Gross graduation ratio, primary, female (%)</t>
   </si>
   <si>
+    <t>Contributing family workers, female (% of female employment)</t>
+  </si>
+  <si>
     <t>Public spending on education, total (% of GDP)</t>
   </si>
   <si>
     <t>Government expenditure on education, total (% of GDP)</t>
   </si>
   <si>
-    <t>Contributing family workers, female (% of female employment)</t>
-  </si>
-  <si>
     <t>Proportion of seats held by women in national parliaments (%)</t>
   </si>
   <si>
@@ -1252,12 +1252,12 @@
     <t>Secondary education, pupils (% female)</t>
   </si>
   <si>
+    <t>Inflation, consumer prices (annual %)</t>
+  </si>
+  <si>
     <t>Proportion of women in ministerial level positions (%)</t>
   </si>
   <si>
-    <t>Inflation, consumer prices (annual %)</t>
-  </si>
-  <si>
     <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
   </si>
   <si>
@@ -1375,12 +1375,12 @@
     <t>Secondary education, teachers (% female)</t>
   </si>
   <si>
+    <t>Net ODA provided, total (% of GNI)</t>
+  </si>
+  <si>
     <t>Net ODA provided to the least developed countries (% of donor GNI)</t>
   </si>
   <si>
-    <t>Net ODA provided, total (% of GNI)</t>
-  </si>
-  <si>
     <t>Labor force with basic education, male (% of male working-age population with basic education)</t>
   </si>
   <si>
@@ -1399,33 +1399,33 @@
     <t>Poverty gap at $1.90 a day (2011 PPP) (%)</t>
   </si>
   <si>
+    <t>Malnutrition prevalence, weight for age, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of underweight, weight for age (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of underweight, weight for age, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Malnutrition prevalence, weight for age (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Rural poverty gap at national poverty lines (%)</t>
+  </si>
+  <si>
+    <t>Malnutrition prevalence, weight for age, male (% of children under 5)</t>
+  </si>
+  <si>
     <t>Agricultural support estimate (% of GDP)</t>
   </si>
   <si>
-    <t>Rural poverty gap at national poverty lines (%)</t>
-  </si>
-  <si>
-    <t>Malnutrition prevalence, weight for age, female (% of children under 5)</t>
-  </si>
-  <si>
     <t>Prevalence of underweight, weight for age, male (% of children under 5)</t>
   </si>
   <si>
     <t>Urban poverty gap at national poverty lines (%)</t>
   </si>
   <si>
-    <t>Malnutrition prevalence, weight for age (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Malnutrition prevalence, weight for age, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of underweight, weight for age (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of underweight, weight for age, female (% of children under 5)</t>
-  </si>
-  <si>
     <t>Rural poverty headcount ratio at national poverty lines (% of rural population)</t>
   </si>
   <si>
@@ -1447,22 +1447,25 @@
     <t>Urban poverty headcount ratio at national poverty lines (% of urban population)</t>
   </si>
   <si>
+    <t>Net ODA provided, total (constant 2015 US$)</t>
+  </si>
+  <si>
     <t>People using safely managed drinking water services, rural (% of rural population)</t>
   </si>
   <si>
     <t>Net ODA provided, total (current US$)</t>
   </si>
   <si>
-    <t>Net ODA provided, total (constant 2015 US$)</t>
+    <t>Years</t>
   </si>
   <si>
     <t>Net ODA provided to the least developed countries (current US$)</t>
   </si>
   <si>
+    <t>Reion_sub_code</t>
+  </si>
+  <si>
     <t>Region_code</t>
-  </si>
-  <si>
-    <t>Reion_sub_code</t>
   </si>
 </sst>
 </file>
@@ -1820,7 +1823,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B484"/>
+  <dimension ref="A1:B485"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1844,7 +1847,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.178190305708645</v>
+        <v>2.17249230001064</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1852,7 +1855,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.086678929119044</v>
+        <v>2.0919495843897</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1860,7 +1863,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.960301137161506</v>
+        <v>1.958164385024754</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1868,7 +1871,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.958164385024754</v>
+        <v>1.957452134312504</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1876,7 +1879,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.953744540390427</v>
+        <v>1.948046534692421</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1884,7 +1887,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.906836365240012</v>
+        <v>1.918299996575438</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1892,7 +1895,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.877875171748578</v>
+        <v>1.88001192388533</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1908,7 +1911,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.667462946781833</v>
+        <v>1.672696293681847</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1924,7 +1927,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.588574045258869</v>
+        <v>1.591423048107872</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1948,7 +1951,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.565430481982384</v>
+        <v>1.558852227223755</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1956,7 +1959,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.548192757101837</v>
+        <v>1.55104175995084</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1980,7 +1983,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.539797946949309</v>
+        <v>1.536090543241904</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1988,7 +1991,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.521936747109942</v>
+        <v>1.519087744260939</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2020,7 +2023,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.466093119284142</v>
+        <v>1.468942122133145</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2028,7 +2031,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1.461286294739782</v>
+        <v>1.464135297588785</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2036,7 +2039,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1.460708336094267</v>
+        <v>1.463557338943271</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2044,7 +2047,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1.459239189347909</v>
+        <v>1.459731289840009</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2052,7 +2055,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1.458068539145816</v>
+        <v>1.454611699589111</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2084,7 +2087,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1.434823656033247</v>
+        <v>1.437782367371677</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2092,7 +2095,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1.434200872793878</v>
+        <v>1.434823656033247</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2100,7 +2103,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1.430985247113018</v>
+        <v>1.434200872793878</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2108,7 +2111,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1.428096218870786</v>
+        <v>1.429650220424788</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2116,7 +2119,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1.418856016878639</v>
+        <v>1.421705019727642</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2124,7 +2127,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1.4051260007033</v>
+        <v>1.407975003552303</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2140,7 +2143,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1.397641308269101</v>
+        <v>1.395931906559699</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2148,7 +2151,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1.395942491347253</v>
+        <v>1.394436581984315</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2156,7 +2159,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1.392253697005573</v>
+        <v>1.389822220436166</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2164,7 +2167,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1.38062204642828</v>
+        <v>1.383471049277282</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2172,7 +2175,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1.38062204642828</v>
+        <v>1.383471049277282</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2188,7 +2191,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1.362857855636389</v>
+        <v>1.364747015858882</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2196,7 +2199,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1.360970923678457</v>
+        <v>1.363790778364183</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2204,7 +2207,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1.359917298031876</v>
+        <v>1.360970923678457</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2212,7 +2215,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1.356688929595667</v>
+        <v>1.360454401004876</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2228,7 +2231,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1.343835438092874</v>
+        <v>1.347552926526493</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2252,7 +2255,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1.337214847369473</v>
+        <v>1.340986435243872</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2260,7 +2263,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1.333531407405191</v>
+        <v>1.337214847369473</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2268,7 +2271,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>1.329066505718338</v>
+        <v>1.333531407405191</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2276,7 +2279,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1.328053489878425</v>
+        <v>1.329066505718338</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -2284,7 +2287,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1.327883950128003</v>
+        <v>1.328053489878425</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2292,7 +2295,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1.326287661229979</v>
+        <v>1.327883950128003</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2340,7 +2343,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>1.296646219140621</v>
+        <v>1.299495221989624</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2348,7 +2351,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>1.292160169420202</v>
+        <v>1.295009172269205</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -2356,7 +2359,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>1.291037124672797</v>
+        <v>1.294296921556954</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -2364,7 +2367,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>1.290979868239901</v>
+        <v>1.291037124672797</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -2380,7 +2383,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>1.280046215254412</v>
+        <v>1.281914717122915</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2404,7 +2407,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>1.264118722672969</v>
+        <v>1.266859808747389</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -2412,7 +2415,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>1.263001231604692</v>
+        <v>1.265850234453695</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -2420,7 +2423,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>1.26220193992383</v>
+        <v>1.260701399110539</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -2428,7 +2431,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>1.260701399110539</v>
+        <v>1.25802889274003</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -2452,7 +2455,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>1.246608370952106</v>
+        <v>1.248963240037157</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2460,7 +2463,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>1.246114237188154</v>
+        <v>1.246608370952106</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -2468,7 +2471,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>1.245985202587138</v>
+        <v>1.243136199738136</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2524,7 +2527,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>1.204271366888058</v>
+        <v>1.203318200867839</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2532,7 +2535,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>1.201309978519055</v>
+        <v>1.201422364039055</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2540,7 +2543,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>1.200469198018836</v>
+        <v>1.201309978519055</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -2580,7 +2583,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>1.186626340242289</v>
+        <v>1.186882174540687</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2588,7 +2591,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>1.183798916922746</v>
+        <v>1.186626340242289</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2596,7 +2599,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>1.183422671081183</v>
+        <v>1.183798916922746</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2620,7 +2623,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>1.176998752370921</v>
+        <v>1.179847755219924</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2644,7 +2647,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>1.163034607382086</v>
+        <v>1.165883610231089</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2652,7 +2655,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>1.162270871243113</v>
+        <v>1.164756106974769</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2668,7 +2671,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>1.160229592345248</v>
+        <v>1.161355667645356</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2676,7 +2679,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>1.157938850157512</v>
+        <v>1.160229592345248</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2708,7 +2711,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>1.137437442291696</v>
+        <v>1.141195261720079</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2724,7 +2727,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>1.134964928959784</v>
+        <v>1.132457818872901</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2732,7 +2735,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>1.132457818872901</v>
+        <v>1.132115926110782</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2796,7 +2799,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>1.090592559556819</v>
+        <v>1.090922063111592</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2804,7 +2807,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>1.088438126901902</v>
+        <v>1.090592559556819</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2812,7 +2815,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>1.08807306026259</v>
+        <v>1.088438126901902</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2836,7 +2839,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>1.076029090675581</v>
+        <v>1.078878093524583</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2844,7 +2847,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>1.076029090675581</v>
+        <v>1.078878093524583</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2876,7 +2879,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>1.059480507921482</v>
+        <v>1.05995479011593</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2884,7 +2887,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>1.059480507921482</v>
+        <v>1.056631505072479</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2892,7 +2895,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>1.054326390404449</v>
+        <v>1.056631505072479</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2900,7 +2903,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>1.053430587811941</v>
+        <v>1.054326390404449</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2948,7 +2951,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>1.045403449720816</v>
+        <v>1.044883539523486</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2956,7 +2959,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>1.044548119310531</v>
+        <v>1.044554346071647</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2964,7 +2967,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>1.044180871324892</v>
+        <v>1.044548119310531</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2972,7 +2975,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>1.04198822600768</v>
+        <v>1.044180871324892</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -3084,7 +3087,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>1.005190648939367</v>
+        <v>1.004946969393317</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -3092,7 +3095,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>1.004946969393317</v>
+        <v>1.003849158321523</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -3100,7 +3103,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>1.003849158321523</v>
+        <v>1.002341646090365</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -3196,7 +3199,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.9764698526391156</v>
+        <v>0.9741254788220317</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -3204,7 +3207,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.9741254788220317</v>
+        <v>0.9709229040443104</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -3212,7 +3215,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.9727254769794407</v>
+        <v>0.9708766881223356</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -3220,7 +3223,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.9709229040443104</v>
+        <v>0.9695812000522337</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -3228,7 +3231,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.9708766881223356</v>
+        <v>0.9652201316798061</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -3236,7 +3239,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.9695812000522337</v>
+        <v>0.9603569953450908</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -3244,7 +3247,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.9652201316798061</v>
+        <v>0.9593091643652611</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -3252,7 +3255,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.9603569953450908</v>
+        <v>0.9560663215552072</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -3260,7 +3263,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.9593091643652611</v>
+        <v>0.9524726757327506</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -3268,7 +3271,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.9560663215552072</v>
+        <v>0.9520747556287443</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -3276,7 +3279,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.9524726757327506</v>
+        <v>0.9516764629592789</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -3284,7 +3287,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.9520747556287443</v>
+        <v>0.9498860922587617</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -3292,7 +3295,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.9516764629592789</v>
+        <v>0.9484601869499742</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -3300,7 +3303,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.9484601869499742</v>
+        <v>0.9469249103835684</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -3332,7 +3335,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.9425466729497574</v>
+        <v>0.9436128268944102</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -3340,7 +3343,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.9424443582253479</v>
+        <v>0.9425466729497574</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -3348,7 +3351,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.9416640522464697</v>
+        <v>0.9424443582253479</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -3428,7 +3431,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.9277939556148826</v>
+        <v>0.9276642335116927</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -3436,7 +3439,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.9276642335116927</v>
+        <v>0.9272552179124551</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -3444,7 +3447,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.9272552179124551</v>
+        <v>0.9266119591672721</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -3452,7 +3455,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.9266119591672721</v>
+        <v>0.9235340523575055</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -3460,7 +3463,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.9235340523575055</v>
+        <v>0.9214802276487333</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -3468,7 +3471,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.9214802276487333</v>
+        <v>0.9203367714765762</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -3476,7 +3479,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.9203367714765762</v>
+        <v>0.9194682820867772</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -3484,7 +3487,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.9194682820867772</v>
+        <v>0.9191661221039311</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -3564,7 +3567,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.9021907366840312</v>
+        <v>0.903199994188876</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -3572,7 +3575,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.9009131193756506</v>
+        <v>0.9021907366840312</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -3580,7 +3583,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.9006449851844092</v>
+        <v>0.9009131193756506</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -3588,7 +3591,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.9003509913398733</v>
+        <v>0.9006449851844092</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -3676,7 +3679,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.8587173566032713</v>
+        <v>0.8591889515006899</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -3684,7 +3687,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.8580422983604663</v>
+        <v>0.8573723800434894</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -3724,7 +3727,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.8441524966728298</v>
+        <v>0.8431094693192076</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -3732,7 +3735,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.8348483521780889</v>
+        <v>0.8420157445360776</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -3740,7 +3743,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.8348426139746752</v>
+        <v>0.8362728536025901</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3756,7 +3759,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.8286947766993866</v>
+        <v>0.8235801026744558</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -3764,7 +3767,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.82423196413222</v>
+        <v>0.8213829612832164</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -3772,7 +3775,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>0.8204088482989518</v>
+        <v>0.8201498480399512</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -3780,7 +3783,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.8130620337360179</v>
+        <v>0.8139564217888706</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -3788,7 +3791,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.8112144555597012</v>
+        <v>0.8064504311824126</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -3796,7 +3799,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>0.8055070210872468</v>
+        <v>0.8039524933650721</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -3812,7 +3815,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>0.7999576581360377</v>
+        <v>0.7995302446182593</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -3836,7 +3839,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>0.7932326292281329</v>
+        <v>0.7927642120930485</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -3852,7 +3855,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>0.7700394541587186</v>
+        <v>0.770092872962137</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -3860,7 +3863,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.7463195229925548</v>
+        <v>0.744541675996961</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -3868,7 +3871,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>0.7409718462729495</v>
+        <v>0.7351689117268205</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -3876,7 +3879,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.739208299378505</v>
+        <v>0.7333318998706229</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -3892,7 +3895,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>0.7259074719629965</v>
+        <v>0.7257132217687468</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -3900,7 +3903,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>0.7223662557242467</v>
+        <v>0.7220688974898528</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -3916,7 +3919,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>0.7170097420477495</v>
+        <v>0.7173038326644212</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -3924,7 +3927,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>0.7169443936390154</v>
+        <v>0.7133460624035097</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -3932,7 +3935,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>0.7130925700447543</v>
+        <v>0.7113036403340582</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -3948,7 +3951,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>0.7043955416543097</v>
+        <v>0.7007633713554728</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -3956,7 +3959,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.7020154158613914</v>
+        <v>0.6986604332903668</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -3964,7 +3967,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>0.6984581987744065</v>
+        <v>0.6984641724322225</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -3972,7 +3975,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>0.6956191916418992</v>
+        <v>0.6942992170976627</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -3980,7 +3983,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>0.6942992170976627</v>
+        <v>0.6942760109120145</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -3988,7 +3991,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>0.690458032830797</v>
+        <v>0.6911321272548918</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -3996,7 +3999,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>0.6902309190841167</v>
+        <v>0.6797345220130193</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -4004,7 +4007,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>0.6795153679477117</v>
+        <v>0.6749094761324186</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -4012,7 +4015,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>0.6747862019706832</v>
+        <v>0.6742520139364949</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -4020,7 +4023,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>0.6747862019706832</v>
+        <v>0.6739222083536593</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -4028,7 +4031,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>0.674495003420494</v>
+        <v>0.6706666312223519</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -4036,7 +4039,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>0.6712798876229473</v>
+        <v>0.6697051925692761</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -4060,7 +4063,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>0.662109750153391</v>
+        <v>0.6603840382106569</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -4100,7 +4103,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>0.6110191581169133</v>
+        <v>0.6115361084931308</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -4108,7 +4111,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>0.5972688768430765</v>
+        <v>0.5982813686247987</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -4116,7 +4119,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>0.5894198905189563</v>
+        <v>0.5910149657661834</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -4132,7 +4135,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>0.5680294805975894</v>
+        <v>0.5683143808824895</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -4140,7 +4143,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>0.5628964662757492</v>
+        <v>0.563147848880073</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -4196,7 +4199,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>0.5464578389315649</v>
+        <v>0.5470001257857297</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -4204,7 +4207,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>0.5450143624533471</v>
+        <v>0.5469137604401184</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -4252,7 +4255,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>0.5239171486281602</v>
+        <v>0.5261789410344317</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -4284,7 +4287,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>0.5209617506428279</v>
+        <v>0.5195638940545153</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -4292,7 +4295,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>0.5180570925237264</v>
+        <v>0.5180436019476222</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -4332,7 +4335,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>0.4874670916500388</v>
+        <v>0.4880144510613662</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -4340,7 +4343,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>0.4795539504472162</v>
+        <v>0.4796429817862471</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -4372,7 +4375,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>0.4701358252250707</v>
+        <v>0.4703872078293945</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -4388,7 +4391,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>0.4662327262237427</v>
+        <v>0.4662162682799065</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -4396,7 +4399,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>0.4652174205221711</v>
+        <v>0.4653093238398809</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -4412,7 +4415,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>0.4635388925246517</v>
+        <v>0.4633401248840241</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -4452,7 +4455,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>0.4563117067636773</v>
+        <v>0.4562244923907484</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -4500,7 +4503,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>0.4437642084862523</v>
+        <v>0.4441358175535133</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -4516,7 +4519,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>0.4395811043748745</v>
+        <v>0.4392863799422186</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -4548,7 +4551,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>0.4338008530082742</v>
+        <v>0.4338880526456883</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -4564,7 +4567,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>0.4336031523607877</v>
+        <v>0.4338008530082742</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -4572,7 +4575,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>0.4286619527061832</v>
+        <v>0.4290851663238415</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -4580,7 +4583,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>0.4271625462942927</v>
+        <v>0.4282894984030123</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -4604,7 +4607,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>0.4234566536495399</v>
+        <v>0.4230045457494358</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -4612,7 +4615,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>0.4232670446222244</v>
+        <v>0.4221986527492356</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -4620,7 +4623,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>0.4166266619058723</v>
+        <v>0.4166097705846328</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -4644,7 +4647,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>0.4129614131940871</v>
+        <v>0.4126294592422237</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -4660,7 +4663,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>0.3958883309344174</v>
+        <v>0.3961607627778077</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -4740,7 +4743,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>0.3565087329640562</v>
+        <v>0.3568139832693069</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -4772,7 +4775,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>0.3491822735313632</v>
+        <v>0.3498958112126522</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -4780,7 +4783,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>0.348030280575244</v>
+        <v>0.3481475884569929</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -4876,7 +4879,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>0.3236400125972883</v>
+        <v>0.3231432233086875</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -4956,7 +4959,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>0.300130384727358</v>
+        <v>0.2996805421722526</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -5036,7 +5039,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>0.2838330090158188</v>
+        <v>0.2839454696545949</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -5132,7 +5135,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>0.2470998908423405</v>
+        <v>0.246435863762732</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -5140,7 +5143,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>0.246435863762732</v>
+        <v>0.2451318794827329</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -5268,7 +5271,7 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>0.2287445657921192</v>
+        <v>0.2320455860977195</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -5276,7 +5279,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>0.2187758092619236</v>
+        <v>0.2196529240028897</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -5308,7 +5311,7 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>0.1714277236063582</v>
+        <v>0.1742767264553611</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -5316,7 +5319,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>0.1714277236063582</v>
+        <v>0.1742767264553611</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -5324,7 +5327,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>0.1714277236063582</v>
+        <v>0.1742767264553611</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -5332,7 +5335,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>0.1714277236063582</v>
+        <v>0.1742767264553611</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -5340,7 +5343,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>0.1714277236063582</v>
+        <v>0.1742767264553611</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -5348,7 +5351,7 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>0.1714277236063582</v>
+        <v>0.1742767264553611</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -5356,7 +5359,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>0.1714277236063582</v>
+        <v>0.1742767264553611</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -5364,7 +5367,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>0.1714277236063582</v>
+        <v>0.1742767264553611</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -5452,7 +5455,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>0.1166234229123855</v>
+        <v>0.116404268847077</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -5652,7 +5655,7 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>0.05628532342517434</v>
+        <v>0.06258341487437291</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -5660,7 +5663,7 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>0.05423609296445453</v>
+        <v>0.05628532342517434</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -5668,7 +5671,7 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>0.05285130726367337</v>
+        <v>0.03789386998968358</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -5676,7 +5679,7 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>0.01694989806034997</v>
+        <v>0.02586047456442087</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -5684,7 +5687,7 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>2.886579864025407e-15</v>
+        <v>0.01890324484507122</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -5692,6 +5695,14 @@
         <v>482</v>
       </c>
       <c r="B484">
+        <v>2.886579864025407e-15</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2">
+      <c r="A485" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B485">
         <v>2.886579864025407e-15</v>
       </c>
     </row>
